--- a/Data/g3.5b.xlsx
+++ b/Data/g3.5b.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5b Média(2010-2025)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5b Média(2010-2023)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.36805552339005</v>
+        <v>30.12066375151463</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.402487062711</v>
+        <v>16.96368483171459</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.95160093716583</v>
+        <v>16.38002916428334</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.97550479097957</v>
+        <v>15.50788422752818</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.31278085620568</v>
+        <v>14.87449233102686</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.87097098501993</v>
+        <v>14.71585778266213</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.875130835729102</v>
+        <v>9.142115924607378</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.78991514550392</v>
+        <v>14.27646327118632</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.380148613885909</v>
+        <v>9.852851139694197</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>

--- a/Data/g3.5b.xlsx
+++ b/Data/g3.5b.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5b Média(2010-2023)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5b Média" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Ordem</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +575,11 @@
       <c r="C8" t="n">
         <v>19</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -551,6 +591,11 @@
         <v>14.27646327118632</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -562,6 +607,11 @@
         <v>9.852851139694197</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g3.5b.xlsx
+++ b/Data/g3.5b.xlsx
@@ -462,14 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.12066375151463</v>
+        <v>30.67997022905127</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.96368483171459</v>
+        <v>17.16840087697502</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -498,14 +498,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.38002916428334</v>
+        <v>16.7338619057441</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.50788422752818</v>
+        <v>15.65906491759329</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -534,32 +534,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.87449233102686</v>
+        <v>15.01689376004171</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.71585778266213</v>
+        <v>14.45764405039801</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.142115924607378</v>
+        <v>10.04074303822441</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.27646327118632</v>
+        <v>14.43561928060847</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.852851139694197</v>
+        <v>9.826812255000995</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
